--- a/05.기획팀 문서/221103_애니메이션 리스트.xlsx
+++ b/05.기획팀 문서/221103_애니메이션 리스트.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>넘버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,11 +50,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전면 카메라로 사진 찍을 때 하나가 브이 하는 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복한얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식묘사할 때 행복해하는 하나(방방뛰고 스테이크에 앉고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃는얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀엽게 웃으며 서있으면 좋겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머쓱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민망하거나 머쓱할 때 나오는 표정&amp;모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰 화면 보는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀란얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개그 취향이 맞았을 때 깔깔 웃는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아버지이야기에 슬프고 심란해지는 얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어에게 장난칠 때 나오는 장난기 가득한 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 헛소리하면/과거얘기나오면 놀라는 얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐진얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입술이 삐죽 나온 심기불편 얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걱정스럽게 묻기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걱정스럽게 질문하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만날때나 헤어질때 인사하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말벌이 날아가서 휴~ 다행이다 안심하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대에 차서 눈이 반짝반짝한 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두통으로 비틀거리는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손사래치면서 괜찮아! 하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부끄럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼이 빨개져서 부끄러워 하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀엽게 화내는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아픔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두통으로 조금 아파보이는 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거를 그리워하면서 날 보거나 먼 산을 보는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피를 나에게 내미는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀을 감추고 씨익 웃는 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,32 +590,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -431,16 +625,274 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/05.기획팀 문서/221103_애니메이션 리스트.xlsx
+++ b/05.기획팀 문서/221103_애니메이션 리스트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\05.기획팀 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\05.기획팀 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,130 @@
   </si>
   <si>
     <t>비밀을 감추고 씨익 웃는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가리키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 한 팔을 길게 뻗어 무언가를 가리키는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끌고가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 한 손을 플레이어의 손에 잡고 끌고가는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁금해하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 심오하게 생각하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끄덕이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 고개를 끄덕이는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침울한 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 침울한 표정을 지으며 눈가에 눈물이 맺히는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가벼운 키스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 플레이어에게 가벼운 키스를 하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 전화를 받는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한숨 쉬기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 한숨을 쉬는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓸쓸한 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 쓸쓸한 표정을 짓는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 플레이어를 안는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 플레이어를 향해 손을 흔드는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나짱이 눈을 반짝이고 얼굴 아래로 주먹을 모아 플레이어를 빤히 바라보는 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -895,8 +1019,174 @@
         <v>50</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>